--- a/APIdoc/牙科API.xlsx
+++ b/APIdoc/牙科API.xlsx
@@ -99,10 +99,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -171,6 +171,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -186,91 +270,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,9 +301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,14 +314,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -354,25 +354,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +414,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,72 +516,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -517,24 +535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,11 +650,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,26 +680,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,6 +706,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -731,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,137 +743,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,12 +901,6 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -919,9 +913,6 @@
     <xf numFmtId="176" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -969,9 +960,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1324,7 +1312,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1382,9 +1370,9 @@
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" ht="16.5" spans="1:12">
       <c r="A3" s="4" t="s">
@@ -1414,9 +1402,9 @@
       <c r="I3" s="7">
         <v>43196</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="8"/>
@@ -1442,7 +1430,7 @@
       <c r="I4" s="7">
         <v>43196</v>
       </c>
-      <c r="J4" s="30"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="8"/>
@@ -1454,7 +1442,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="30"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" ht="16.5" spans="1:10">
       <c r="A6" s="8"/>
@@ -1466,7 +1454,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="30"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" ht="16.5" spans="1:10">
       <c r="A7" s="8"/>
@@ -1478,7 +1466,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="30"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" ht="16.5" spans="1:10">
       <c r="A8" s="8"/>
@@ -1490,7 +1478,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="30"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" ht="16.5" spans="1:10">
       <c r="A9" s="8"/>
@@ -1502,7 +1490,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="30"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" ht="16.5" spans="1:10">
       <c r="A10" s="8"/>
@@ -1514,7 +1502,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="30"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" ht="16.5" spans="1:10">
       <c r="A11" s="8"/>
@@ -1526,7 +1514,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="30"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" ht="16.5" spans="1:10">
       <c r="A12" s="8"/>
@@ -1538,7 +1526,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="30"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" ht="16.5" spans="1:10">
       <c r="A13" s="8"/>
@@ -1550,11 +1538,11 @@
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="30"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" ht="16.5" spans="1:10">
       <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="5"/>
@@ -1564,11 +1552,11 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="30"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" ht="16.5" spans="1:10">
       <c r="A15" s="8"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1576,11 +1564,11 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="30"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" ht="16.5" spans="1:10">
       <c r="A16" s="8"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1588,11 +1576,11 @@
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="30"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" ht="16.5" spans="1:10">
       <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1600,455 +1588,455 @@
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="30"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" ht="16.5" spans="1:10">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="30"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" ht="16.5" spans="1:10">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="30"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" ht="16.5" spans="1:10">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="30"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" ht="16.5" spans="1:10">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="30"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" ht="16.5" spans="1:10">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="30"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" ht="16.5" spans="1:10">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="30"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" ht="16.5" spans="1:10">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="30"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" ht="16.5" spans="1:10">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="30"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" ht="16.5" spans="1:10">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="30"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" ht="16.5" spans="1:10">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="30"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" ht="16.5" spans="1:10">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="30"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" ht="16.5" spans="1:10">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="30"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" ht="16.5" spans="1:10">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="30"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" ht="16.5" spans="1:10">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="30"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" ht="16.5" spans="1:10">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="30"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" ht="16.5" spans="1:10">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="30"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" ht="16.5" spans="1:10">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" ht="16.5" spans="1:10">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" ht="16.5" spans="1:10">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" ht="16.5" spans="1:10">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" ht="16.5" spans="1:10">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
     </row>
     <row r="43" ht="16.5" spans="1:10">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" ht="16.5" spans="1:10">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
     </row>
     <row r="45" ht="16.5" spans="1:10">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
     </row>
     <row r="46" ht="16.5" spans="1:10">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" ht="16.5" spans="1:10">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
     </row>
     <row r="48" ht="16.5" spans="1:10">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
     </row>
     <row r="49" ht="16.5" spans="1:10">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" ht="16.5" spans="1:10">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
     </row>
     <row r="51" ht="16.5" spans="1:10">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
     </row>
     <row r="52" ht="16.5" spans="1:10">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
     </row>
     <row r="53" ht="16.5" spans="1:10">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
     </row>
     <row r="54" ht="16.5" spans="1:10">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/APIdoc/牙科API.xlsx
+++ b/APIdoc/牙科API.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>牙科接口通用前缀：https://yake.hzcloudservice.com/api/v1/模块前缀/路由名称</t>
   </si>
@@ -60,7 +60,7 @@
     <t>phone</t>
   </si>
   <si>
-    <t>验证码</t>
+    <t>无</t>
   </si>
   <si>
     <t>POST</t>
@@ -78,10 +78,16 @@
     <t>phone code</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>verifyCode</t>
+  </si>
+  <si>
+    <t>获取用户微信个人信息并存储</t>
+  </si>
+  <si>
+    <t>phone password</t>
+  </si>
+  <si>
+    <t>getWeChatUserInfo/1</t>
   </si>
   <si>
     <t>登录</t>
@@ -98,11 +104,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -173,6 +179,75 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,33 +261,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,6 +285,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -241,68 +308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,6 +360,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -372,48 +402,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,36 +498,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,48 +517,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,11 +632,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,6 +686,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -665,45 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -712,17 +729,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -731,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,133 +749,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,7 +1318,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1416,13 +1422,13 @@
         <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>17</v>
@@ -1435,13 +1441,27 @@
     <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="7">
+        <v>43197</v>
+      </c>
       <c r="J5" s="27"/>
     </row>
     <row r="6" ht="16.5" spans="1:10">
@@ -1543,7 +1563,7 @@
     <row r="14" ht="16.5" spans="1:10">
       <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1592,7 +1612,7 @@
     </row>
     <row r="18" ht="16.5" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="10"/>
@@ -1738,7 +1758,7 @@
     </row>
     <row r="30" ht="16.5" spans="1:10">
       <c r="A30" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="13"/>
